--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F502"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11785,6 +11785,264 @@
         <v>348.7390909090909</v>
       </c>
       <c r="F502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>355.3409090909091</v>
+      </c>
+      <c r="C503" t="n">
+        <v>364.360909090909</v>
+      </c>
+      <c r="D503" t="n">
+        <v>352.490909090909</v>
+      </c>
+      <c r="E503" t="n">
+        <v>347.9009090909091</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="n">
+        <v>359.5418181818182</v>
+      </c>
+      <c r="D504" t="n">
+        <v>356.3218181818182</v>
+      </c>
+      <c r="E504" t="n">
+        <v>349.6818181818182</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>347.6381818181818</v>
+      </c>
+      <c r="C505" t="n">
+        <v>362.7981818181818</v>
+      </c>
+      <c r="D505" t="n">
+        <v>355.4081818181818</v>
+      </c>
+      <c r="E505" t="n">
+        <v>362.3981818181818</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>514.0754545454545</v>
+      </c>
+      <c r="C506" t="n">
+        <v>354.7654545454546</v>
+      </c>
+      <c r="D506" t="n">
+        <v>357.4954545454545</v>
+      </c>
+      <c r="E506" t="n">
+        <v>365.6254545454545</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>504.61</v>
+      </c>
+      <c r="C507" t="n">
+        <v>345.95</v>
+      </c>
+      <c r="D507" t="n">
+        <v>350.27</v>
+      </c>
+      <c r="E507" t="n">
+        <v>351.29</v>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>508.8481818181818</v>
+      </c>
+      <c r="C508" t="n">
+        <v>364.0281818181818</v>
+      </c>
+      <c r="D508" t="n">
+        <v>363.2981818181818</v>
+      </c>
+      <c r="E508" t="n">
+        <v>360.7581818181818</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>514.0090909090909</v>
+      </c>
+      <c r="C509" t="n">
+        <v>374.389090909091</v>
+      </c>
+      <c r="D509" t="n">
+        <v>371.9890909090909</v>
+      </c>
+      <c r="E509" t="n">
+        <v>370.079090909091</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>510.2981818181818</v>
+      </c>
+      <c r="C510" t="n">
+        <v>355.7281818181818</v>
+      </c>
+      <c r="D510" t="n">
+        <v>357.8381818181818</v>
+      </c>
+      <c r="E510" t="n">
+        <v>357.4681818181818</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>514.1027272727273</v>
+      </c>
+      <c r="C511" t="n">
+        <v>358.4427272727273</v>
+      </c>
+      <c r="D511" t="n">
+        <v>354.7527272727273</v>
+      </c>
+      <c r="E511" t="n">
+        <v>345.6127272727272</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>497.3427272727273</v>
+      </c>
+      <c r="C512" t="n">
+        <v>360.6327272727273</v>
+      </c>
+      <c r="D512" t="n">
+        <v>354.6527272727272</v>
+      </c>
+      <c r="E512" t="n">
+        <v>347.9327272727273</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="n">
+        <v>347.1472727272728</v>
+      </c>
+      <c r="E513" t="n">
+        <v>335.9872727272727</v>
+      </c>
+      <c r="F513" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11801,7 +12059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17359,6 +17617,116 @@
       </c>
       <c r="B555" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -17527,28 +17895,28 @@
         <v>0.0598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.031749391433757</v>
+        <v>3.269171443485629</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K2" t="n">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1041970802679737</v>
+        <v>0.1201563661454201</v>
       </c>
       <c r="M2" t="n">
-        <v>54.4396305267646</v>
+        <v>55.34318231870432</v>
       </c>
       <c r="N2" t="n">
-        <v>4217.953571373646</v>
+        <v>4278.653491342251</v>
       </c>
       <c r="O2" t="n">
-        <v>64.94577408402833</v>
+        <v>65.4114171329612</v>
       </c>
       <c r="P2" t="n">
-        <v>348.2846149372481</v>
+        <v>345.9057596913479</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17604,28 +17972,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3928485951469486</v>
+        <v>0.4066378255763594</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K3" t="n">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0664387750584825</v>
+        <v>0.07334799477796583</v>
       </c>
       <c r="M3" t="n">
-        <v>8.021896340754473</v>
+        <v>7.967589108576841</v>
       </c>
       <c r="N3" t="n">
-        <v>119.5263677413465</v>
+        <v>118.1603334550474</v>
       </c>
       <c r="O3" t="n">
-        <v>10.93281152043456</v>
+        <v>10.87015793146758</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8727984231333</v>
+        <v>346.7430947648294</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17681,28 +18049,28 @@
         <v>0.0614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4296654035197636</v>
+        <v>0.4821063610427166</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K4" t="n">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06149013670092274</v>
+        <v>0.07824862572587077</v>
       </c>
       <c r="M4" t="n">
-        <v>9.935249118258442</v>
+        <v>9.943435782965713</v>
       </c>
       <c r="N4" t="n">
-        <v>152.3890518513517</v>
+        <v>152.4825885248365</v>
       </c>
       <c r="O4" t="n">
-        <v>12.34459605865464</v>
+        <v>12.34838404508203</v>
       </c>
       <c r="P4" t="n">
-        <v>334.3682359823202</v>
+        <v>333.8727970305113</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17752,28 +18120,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.4578378198863732</v>
+        <v>0.5386979250276388</v>
       </c>
       <c r="J5" t="n">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K5" t="n">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05594129895048561</v>
+        <v>0.07636371029919542</v>
       </c>
       <c r="M5" t="n">
-        <v>11.10508555721916</v>
+        <v>11.26188093660277</v>
       </c>
       <c r="N5" t="n">
-        <v>191.9206291897669</v>
+        <v>196.1405583670002</v>
       </c>
       <c r="O5" t="n">
-        <v>13.85354211708207</v>
+        <v>14.00501904200777</v>
       </c>
       <c r="P5" t="n">
-        <v>325.1973667485451</v>
+        <v>324.4359899163716</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17810,7 +18178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F502"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32478,6 +32846,346 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-34.93959142236275,173.5733376346023</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-34.94029333810118,173.57307646675042</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-34.941029549932274,173.57289692303823</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-34.9417744618974,173.57294796462514</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-34.94028362975351,173.57302502967883</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-34.94102843037522,173.5729388513139</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-34.941772612521476,173.57296733686692</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-34.93956430686073,173.57325998051658</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-34.94029018989577,173.5730597868159</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-34.941028697380524,173.5729288518083</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-34.941759407189146,173.57310566196426</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-34.940150195969636,173.57493790840536</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-34.94027400746085,173.5729740486729</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-34.9410280873851,173.5729516964498</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-34.94175605579658,173.5731407673397</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-34.940116876497974,173.5748424823315</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-34.94025624810251,173.5728799560475</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-34.94103019897118,173.57287261578148</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-34.941770942510644,173.57298483022788</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-34.940131795387195,173.5748852095941</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-34.94029266780285,173.57307291535065</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-34.94102639154339,173.573015205745</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-34.94176111025915,173.57308782249908</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-34.9401499623624,173.57493723935946</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-34.9403135404047,173.57318350363738</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-34.94102385157114,173.57311032541057</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-34.94175143085821,173.57318921275296</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-34.94013689955108,173.57489982778375</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-34.94027594693878,173.57298432444003</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-34.941027987224295,173.57295544750804</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-34.9417645267758,173.57305203478916</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-34.94015029197263,173.57493818335575</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-34.94028141556588,173.57301329841854</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-34.94102888893308,173.57292167803362</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-34.941776838043594,173.57292307440812</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-34.94009129482368,173.57476921730122</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-34.940285827457224,173.57303667361026</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-34.94102891815743,173.57292058356035</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-34.941774428856014,173.57294831073463</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-34.941031111549385,173.57283843836484</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-34.94178683347289,173.57281837132538</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -17740,7 +17740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17831,35 +17831,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17918,27 +17923,28 @@
       <c r="P2" t="n">
         <v>345.9057596913479</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.5697553620942 -34.938340482304866, 173.57911007414336 -34.9416068711348)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.5697553620942</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.93834048230487</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.5791100741434</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.9416068711348</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.5744327181188</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.93997367671983</v>
       </c>
     </row>
@@ -17995,27 +18001,28 @@
       <c r="P3" t="n">
         <v>346.7430947648294</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.5691874557886 -34.939559249393774, 173.57909326470192 -34.9414287953734)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.5691874557886</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.93955924939377</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.5790932647019</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.9414287953734</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.5741403602453</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.94049402238359</v>
       </c>
     </row>
@@ -18072,27 +18079,28 @@
       <c r="P4" t="n">
         <v>333.8727970305113</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.5690389985329 -34.94113250111678, 173.57919714914797 -34.94086116049494)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.5690389985329</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.94113250111678</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.579197149148</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.94086116049494</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.5741180738405</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.94099683080586</v>
       </c>
     </row>
@@ -18143,27 +18151,28 @@
       <c r="P5" t="n">
         <v>324.4359899163716</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.56916357621995 -34.94213567871845, 173.57925929094478 -34.94117178189678)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.5691635762199</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.94213567871845</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.5792592909448</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.94117178189678</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.5742114335824</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.94165373030761</v>
       </c>
     </row>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F513"/>
+  <dimension ref="A1:F516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12043,6 +12043,76 @@
         <v>335.9872727272727</v>
       </c>
       <c r="F513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>467.4518181818182</v>
+      </c>
+      <c r="C514" t="n">
+        <v>354.2018181818182</v>
+      </c>
+      <c r="D514" t="n">
+        <v>348.0018181818182</v>
+      </c>
+      <c r="E514" t="n">
+        <v>341.9018181818182</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="n">
+        <v>328.8436363636364</v>
+      </c>
+      <c r="D515" t="n">
+        <v>312.8136363636364</v>
+      </c>
+      <c r="E515" t="n">
+        <v>304.5636363636364</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>373.1009090909091</v>
+      </c>
+      <c r="C516" t="n">
+        <v>358.0609090909091</v>
+      </c>
+      <c r="D516" t="n">
+        <v>333.8309090909091</v>
+      </c>
+      <c r="E516" t="n">
+        <v>319.1909090909091</v>
+      </c>
+      <c r="F516" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12059,7 +12129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B566"/>
+  <dimension ref="A1:B569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17727,6 +17797,36 @@
       </c>
       <c r="B566" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -17900,28 +18000,28 @@
         <v>0.0598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.269171443485629</v>
+        <v>3.258278046644947</v>
       </c>
       <c r="J2" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K2" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1201563661454201</v>
+        <v>0.1202973325957707</v>
       </c>
       <c r="M2" t="n">
-        <v>55.34318231870432</v>
+        <v>55.28866000977551</v>
       </c>
       <c r="N2" t="n">
-        <v>4278.653491342251</v>
+        <v>4267.187976557347</v>
       </c>
       <c r="O2" t="n">
-        <v>65.4114171329612</v>
+        <v>65.32371679992916</v>
       </c>
       <c r="P2" t="n">
-        <v>345.9057596913479</v>
+        <v>346.0177776386074</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17978,28 +18078,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4066378255763594</v>
+        <v>0.3934085727128859</v>
       </c>
       <c r="J3" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K3" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07334799477796583</v>
+        <v>0.06892328464287556</v>
       </c>
       <c r="M3" t="n">
-        <v>7.967589108576841</v>
+        <v>7.99436019011997</v>
       </c>
       <c r="N3" t="n">
-        <v>118.1603334550474</v>
+        <v>119.1785581136983</v>
       </c>
       <c r="O3" t="n">
-        <v>10.87015793146758</v>
+        <v>10.9168932445865</v>
       </c>
       <c r="P3" t="n">
-        <v>346.7430947648294</v>
+        <v>346.8693825589608</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18056,28 +18156,28 @@
         <v>0.0614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4821063610427166</v>
+        <v>0.4631854438267339</v>
       </c>
       <c r="J4" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K4" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07824862572587077</v>
+        <v>0.07242871138349505</v>
       </c>
       <c r="M4" t="n">
-        <v>9.943435782965713</v>
+        <v>9.988752407019092</v>
       </c>
       <c r="N4" t="n">
-        <v>152.4825885248365</v>
+        <v>154.2306613393392</v>
       </c>
       <c r="O4" t="n">
-        <v>12.34838404508203</v>
+        <v>12.41896377880776</v>
       </c>
       <c r="P4" t="n">
-        <v>333.8727970305113</v>
+        <v>334.0542396720681</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18128,28 +18228,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.5386979250276388</v>
+        <v>0.5175026973786285</v>
       </c>
       <c r="J5" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K5" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07636371029919542</v>
+        <v>0.07074972543039737</v>
       </c>
       <c r="M5" t="n">
-        <v>11.26188093660277</v>
+        <v>11.30675814608869</v>
       </c>
       <c r="N5" t="n">
-        <v>196.1405583670002</v>
+        <v>198.1275976249354</v>
       </c>
       <c r="O5" t="n">
-        <v>14.00501904200777</v>
+        <v>14.07578053341751</v>
       </c>
       <c r="P5" t="n">
-        <v>324.4359899163716</v>
+        <v>324.6387289193308</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18187,7 +18287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F513"/>
+  <dimension ref="A1:F516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33195,6 +33295,98 @@
         </is>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-34.93998607475723,173.57446787249083</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-34.940272871977626,173.5729680326433</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-34.941030861820074,173.57284779113687</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-34.9417806916,173.5728827081491</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-34.94022178591062,173.57269736969738</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-34.9410411444941,173.5724626658184</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-34.941819464316715,173.57247655334973</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-34.93965394175668,173.57351668002306</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-34.94028064636891,173.5730092230429</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-34.94103500298322,173.5726926943085</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-34.94180427522479,173.57263566497534</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F516"/>
+  <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12115,6 +12115,102 @@
       <c r="F516" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>350.620909090909</v>
+      </c>
+      <c r="C517" t="n">
+        <v>350.5309090909091</v>
+      </c>
+      <c r="D517" t="n">
+        <v>329.4509090909091</v>
+      </c>
+      <c r="E517" t="n">
+        <v>317.0109090909091</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>351.8081818181818</v>
+      </c>
+      <c r="C518" t="n">
+        <v>348.1981818181818</v>
+      </c>
+      <c r="D518" t="n">
+        <v>331.7381818181818</v>
+      </c>
+      <c r="E518" t="n">
+        <v>316.4481818181818</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>366.3854545454545</v>
+      </c>
+      <c r="C519" t="n">
+        <v>356.8754545454545</v>
+      </c>
+      <c r="D519" t="n">
+        <v>333.7754545454546</v>
+      </c>
+      <c r="E519" t="n">
+        <v>317.1254545454545</v>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>369.7218181818182</v>
+      </c>
+      <c r="C520" t="n">
+        <v>367.9418181818182</v>
+      </c>
+      <c r="D520" t="n">
+        <v>335.8118181818182</v>
+      </c>
+      <c r="E520" t="n">
+        <v>323.8018181818182</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12129,7 +12225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B569"/>
+  <dimension ref="A1:B573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17827,6 +17923,46 @@
       </c>
       <c r="B569" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -18000,28 +18136,28 @@
         <v>0.0598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.258278046644947</v>
+        <v>3.108160642890838</v>
       </c>
       <c r="J2" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K2" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1202973325957707</v>
+        <v>0.1115272063960132</v>
       </c>
       <c r="M2" t="n">
-        <v>55.28866000977551</v>
+        <v>55.33305917581586</v>
       </c>
       <c r="N2" t="n">
-        <v>4267.187976557347</v>
+        <v>4274.270312031294</v>
       </c>
       <c r="O2" t="n">
-        <v>65.32371679992916</v>
+        <v>65.37790385161712</v>
       </c>
       <c r="P2" t="n">
-        <v>346.0177776386074</v>
+        <v>347.5476547408094</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18078,28 +18214,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3934085727128859</v>
+        <v>0.3914876055408629</v>
       </c>
       <c r="J3" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K3" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06892328464287556</v>
+        <v>0.06922748423601865</v>
       </c>
       <c r="M3" t="n">
-        <v>7.99436019011997</v>
+        <v>7.982989505245373</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1785581136983</v>
+        <v>118.6488998151513</v>
       </c>
       <c r="O3" t="n">
-        <v>10.9168932445865</v>
+        <v>10.89260757647825</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8693825589608</v>
+        <v>346.8877346318077</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18156,28 +18292,28 @@
         <v>0.0614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4631854438267339</v>
+        <v>0.440876386084834</v>
       </c>
       <c r="J4" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K4" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07242871138349505</v>
+        <v>0.06662371837997949</v>
       </c>
       <c r="M4" t="n">
-        <v>9.988752407019092</v>
+        <v>10.02256225579509</v>
       </c>
       <c r="N4" t="n">
-        <v>154.2306613393392</v>
+        <v>154.4351127475532</v>
       </c>
       <c r="O4" t="n">
-        <v>12.41896377880776</v>
+        <v>12.42719247245947</v>
       </c>
       <c r="P4" t="n">
-        <v>334.0542396720681</v>
+        <v>334.2687697673982</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18228,28 +18364,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.5175026973786285</v>
+        <v>0.484850259296294</v>
       </c>
       <c r="J5" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K5" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07074972543039737</v>
+        <v>0.0628003500891795</v>
       </c>
       <c r="M5" t="n">
-        <v>11.30675814608869</v>
+        <v>11.36911901596771</v>
       </c>
       <c r="N5" t="n">
-        <v>198.1275976249354</v>
+        <v>199.6568417826811</v>
       </c>
       <c r="O5" t="n">
-        <v>14.07578053341751</v>
+        <v>14.12999793993903</v>
       </c>
       <c r="P5" t="n">
-        <v>324.6387289193308</v>
+        <v>324.9518438881429</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18287,7 +18423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F516"/>
+  <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33387,6 +33523,134 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-34.939574806803215,173.57329005050414</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-34.94026547667789,173.57292885082853</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-34.94103628291009,173.57264475637052</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-34.94180653896964,173.5726119515126</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-34.93957898629666,173.57330201984598</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-34.940260777231174,173.5729039522346</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-34.94103561452391,173.57266978996392</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-34.94180712331336,173.5726058303141</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-34.93963030180227,173.5734489789</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-34.94027825819462,173.57299656997236</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-34.94103501918832,173.5726920873732</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-34.94180642002402,173.57261319750776</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-34.9396420465793,173.57348261408154</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-34.940300552043134,173.57311468796635</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-34.94103442411429,173.57271437483237</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-34.94179948717211,173.57268582121893</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19776,7 +19776,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.94023253648849,173.57275432785084</t>
+          <t>-34.940232536488494,173.57275432785084</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -33578,7 +33578,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>-34.94180712331336,173.5726058303141</t>
+          <t>-34.94180712331337,173.5726058303141</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F520"/>
+  <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12211,6 +12211,78 @@
       <c r="F520" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>375.9163636363636</v>
+      </c>
+      <c r="C521" t="n">
+        <v>369.4863636363637</v>
+      </c>
+      <c r="D521" t="n">
+        <v>340.3563636363637</v>
+      </c>
+      <c r="E521" t="n">
+        <v>325.8463636363636</v>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>349.4781818181818</v>
+      </c>
+      <c r="C522" t="n">
+        <v>354.2581818181818</v>
+      </c>
+      <c r="D522" t="n">
+        <v>337.0481818181818</v>
+      </c>
+      <c r="E522" t="n">
+        <v>327.0681818181818</v>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>371.6909090909091</v>
+      </c>
+      <c r="C523" t="n">
+        <v>366.3409090909091</v>
+      </c>
+      <c r="D523" t="n">
+        <v>349.8109090909091</v>
+      </c>
+      <c r="E523" t="n">
+        <v>324.7909090909091</v>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B573"/>
+  <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17963,6 +18035,36 @@
       </c>
       <c r="B573" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -18136,28 +18238,28 @@
         <v>0.0598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.108160642890838</v>
+        <v>3.010322424091432</v>
       </c>
       <c r="J2" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K2" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1115272063960132</v>
+        <v>0.1061181467379578</v>
       </c>
       <c r="M2" t="n">
-        <v>55.33305917581586</v>
+        <v>55.29647196187935</v>
       </c>
       <c r="N2" t="n">
-        <v>4274.270312031294</v>
+        <v>4271.218067970325</v>
       </c>
       <c r="O2" t="n">
-        <v>65.37790385161712</v>
+        <v>65.35455659684584</v>
       </c>
       <c r="P2" t="n">
-        <v>347.5476547408094</v>
+        <v>348.5488267499055</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18214,28 +18316,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3914876055408629</v>
+        <v>0.3994557120928117</v>
       </c>
       <c r="J3" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K3" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06922748423601865</v>
+        <v>0.07249709451162212</v>
       </c>
       <c r="M3" t="n">
-        <v>7.982989505245373</v>
+        <v>7.97957431027106</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6488998151513</v>
+        <v>118.4087661576658</v>
       </c>
       <c r="O3" t="n">
-        <v>10.89260757647825</v>
+        <v>10.88157921248868</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8877346318077</v>
+        <v>346.8110834581729</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18292,28 +18394,28 @@
         <v>0.0614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.440876386084834</v>
+        <v>0.4368209211567401</v>
       </c>
       <c r="J4" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K4" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06662371837997949</v>
+        <v>0.06623813843113646</v>
       </c>
       <c r="M4" t="n">
-        <v>10.02256225579509</v>
+        <v>9.998028373350596</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4351127475532</v>
+        <v>153.7012552827049</v>
       </c>
       <c r="O4" t="n">
-        <v>12.42719247245947</v>
+        <v>12.39763103510928</v>
       </c>
       <c r="P4" t="n">
-        <v>334.2687697673982</v>
+        <v>334.3078749796979</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18364,28 +18466,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.484850259296294</v>
+        <v>0.470400485667693</v>
       </c>
       <c r="J5" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K5" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0628003500891795</v>
+        <v>0.0598756337122397</v>
       </c>
       <c r="M5" t="n">
-        <v>11.36911901596771</v>
+        <v>11.36666977250277</v>
       </c>
       <c r="N5" t="n">
-        <v>199.6568417826811</v>
+        <v>199.2260573315965</v>
       </c>
       <c r="O5" t="n">
-        <v>14.12999793993903</v>
+        <v>14.11474609518699</v>
       </c>
       <c r="P5" t="n">
-        <v>324.9518438881429</v>
+        <v>325.0909259955621</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18423,7 +18525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F520"/>
+  <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33651,6 +33753,102 @@
         </is>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-34.939663852797004,173.57354506373264</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-34.94030366361273,173.57313117383936</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-34.94103309607497,173.57276411367403</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-34.94179736407195,173.57270806123904</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-34.939570784119645,173.57327853024285</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-34.940272985525965,173.57296863424625</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-34.94103406281735,173.57272790650381</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-34.941796095307616,173.57272135185073</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-34.93964897823348,173.57350246525857</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-34.94029732692359,173.57309760049125</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-34.941030333135394,173.57286759115402</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-34.94179846007925,173.57269658028616</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F523"/>
+  <dimension ref="A1:F527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12281,6 +12281,98 @@
         <v>324.7909090909091</v>
       </c>
       <c r="F523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>370.83</v>
+      </c>
+      <c r="C524" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="D524" t="n">
+        <v>352.01</v>
+      </c>
+      <c r="E524" t="n">
+        <v>330.57</v>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>339.9618181818182</v>
+      </c>
+      <c r="C525" t="n">
+        <v>358.6318181818182</v>
+      </c>
+      <c r="D525" t="n">
+        <v>335.6718181818182</v>
+      </c>
+      <c r="E525" t="n">
+        <v>315.4718181818182</v>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>321.0518181818182</v>
+      </c>
+      <c r="C526" t="n">
+        <v>339.2518181818182</v>
+      </c>
+      <c r="D526" t="n">
+        <v>313.3318181818182</v>
+      </c>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="n">
+        <v>357.2454545454545</v>
+      </c>
+      <c r="D527" t="n">
+        <v>324.1454545454546</v>
+      </c>
+      <c r="E527" t="n">
+        <v>315.9254545454546</v>
+      </c>
+      <c r="F527" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12297,7 +12389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B576"/>
+  <dimension ref="A1:B580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18065,6 +18157,46 @@
       </c>
       <c r="B576" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -18238,28 +18370,28 @@
         <v>0.0598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.010322424091432</v>
+        <v>2.882906096203856</v>
       </c>
       <c r="J2" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K2" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1061181467379578</v>
+        <v>0.09832182466073591</v>
       </c>
       <c r="M2" t="n">
-        <v>55.29647196187935</v>
+        <v>55.40388784868354</v>
       </c>
       <c r="N2" t="n">
-        <v>4271.218067970325</v>
+        <v>4295.499604472228</v>
       </c>
       <c r="O2" t="n">
-        <v>65.35455659684584</v>
+        <v>65.54006106552104</v>
       </c>
       <c r="P2" t="n">
-        <v>348.5488267499055</v>
+        <v>349.8566893971783</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18316,28 +18448,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3994557120928117</v>
+        <v>0.3970322633934981</v>
       </c>
       <c r="J3" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K3" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07249709451162212</v>
+        <v>0.07236439216759072</v>
       </c>
       <c r="M3" t="n">
-        <v>7.97957431027106</v>
+        <v>7.977049661963289</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4087661576658</v>
+        <v>118.3260908834752</v>
       </c>
       <c r="O3" t="n">
-        <v>10.88157921248868</v>
+        <v>10.87777968537124</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8110834581729</v>
+        <v>346.83465617989</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18394,28 +18526,28 @@
         <v>0.0614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4368209211567401</v>
+        <v>0.4135128650632465</v>
       </c>
       <c r="J4" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K4" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06623813843113646</v>
+        <v>0.05953936010694993</v>
       </c>
       <c r="M4" t="n">
-        <v>9.998028373350596</v>
+        <v>10.06778120113564</v>
       </c>
       <c r="N4" t="n">
-        <v>153.7012552827049</v>
+        <v>155.8391474211151</v>
       </c>
       <c r="O4" t="n">
-        <v>12.39763103510928</v>
+        <v>12.4835550794281</v>
       </c>
       <c r="P4" t="n">
-        <v>334.3078749796979</v>
+        <v>334.5338877648512</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18466,28 +18598,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.470400485667693</v>
+        <v>0.4499652392968123</v>
       </c>
       <c r="J5" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K5" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0598756337122397</v>
+        <v>0.05524735513398971</v>
       </c>
       <c r="M5" t="n">
-        <v>11.36666977250277</v>
+        <v>11.39388792106973</v>
       </c>
       <c r="N5" t="n">
-        <v>199.2260573315965</v>
+        <v>200.0029880433628</v>
       </c>
       <c r="O5" t="n">
-        <v>14.11474609518699</v>
+        <v>14.14224126662258</v>
       </c>
       <c r="P5" t="n">
-        <v>325.0909259955621</v>
+        <v>325.2882630251445</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18525,7 +18657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F523"/>
+  <dimension ref="A1:F527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33849,6 +33981,126 @@
         </is>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-34.939645947635306,173.57349378609626</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-34.94030018576052,173.57311274731038</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-34.94102969047365,173.57289165961674</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-34.9417924589304,173.5727594436908</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-34.939537284115225,173.57318259226287</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-34.940281796501466,173.57301531669984</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-34.941034465025744,173.5727128425696</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-34.94180813718204,173.57259520968842</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-34.939470715909735,173.5729919537909</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-34.94024275409119,173.57280846236827</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-34.941040993080115,173.5724683371818</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>-34.94027900358352,173.57300051920518</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>-34.94103783324868,173.57258668957573</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-34.94180766612026,173.572600144225</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F527"/>
+  <dimension ref="A1:F532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12362,7 +12362,9 @@
           <t>2025-07-23 22:17:27+00:00</t>
         </is>
       </c>
-      <c r="B527" t="inlineStr"/>
+      <c r="B527" t="n">
+        <v>365.7154545454546</v>
+      </c>
       <c r="C527" t="n">
         <v>357.2454545454545</v>
       </c>
@@ -12375,6 +12377,124 @@
       <c r="F527" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>366.7309090909091</v>
+      </c>
+      <c r="C528" t="n">
+        <v>348.8809090909091</v>
+      </c>
+      <c r="D528" t="n">
+        <v>335.5609090909091</v>
+      </c>
+      <c r="E528" t="n">
+        <v>325.3809090909091</v>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>341.4663636363636</v>
+      </c>
+      <c r="C529" t="n">
+        <v>343.3263636363636</v>
+      </c>
+      <c r="D529" t="n">
+        <v>328.7463636363636</v>
+      </c>
+      <c r="E529" t="n">
+        <v>314.8063636363636</v>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>360.1981818181818</v>
+      </c>
+      <c r="C530" t="n">
+        <v>342.4181818181818</v>
+      </c>
+      <c r="D530" t="n">
+        <v>335.3381818181818</v>
+      </c>
+      <c r="E530" t="n">
+        <v>317.7581818181818</v>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="n">
+        <v>307.6363636363636</v>
+      </c>
+      <c r="D531" t="n">
+        <v>299.4363636363636</v>
+      </c>
+      <c r="E531" t="n">
+        <v>284.2563636363636</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>345.9072727272728</v>
+      </c>
+      <c r="C532" t="n">
+        <v>345.2472727272728</v>
+      </c>
+      <c r="D532" t="n">
+        <v>328.9972727272728</v>
+      </c>
+      <c r="E532" t="n">
+        <v>315.4372727272727</v>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12389,7 +12509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B580"/>
+  <dimension ref="A1:B585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18197,6 +18317,56 @@
       </c>
       <c r="B580" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -18370,28 +18540,28 @@
         <v>0.0598</v>
       </c>
       <c r="I2" t="n">
-        <v>2.882906096203856</v>
+        <v>2.711781556879407</v>
       </c>
       <c r="J2" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="K2" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09832182466073591</v>
+        <v>0.08881160584335213</v>
       </c>
       <c r="M2" t="n">
-        <v>55.40388784868354</v>
+        <v>55.39838165791546</v>
       </c>
       <c r="N2" t="n">
-        <v>4295.499604472228</v>
+        <v>4300.708247579719</v>
       </c>
       <c r="O2" t="n">
-        <v>65.54006106552104</v>
+        <v>65.57978535783506</v>
       </c>
       <c r="P2" t="n">
-        <v>349.8566893971783</v>
+        <v>351.6198876712166</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18448,28 +18618,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3970322633934981</v>
+        <v>0.357729244653846</v>
       </c>
       <c r="J3" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07236439216759072</v>
+        <v>0.05778902625828408</v>
       </c>
       <c r="M3" t="n">
-        <v>7.977049661963289</v>
+        <v>8.127505594924084</v>
       </c>
       <c r="N3" t="n">
-        <v>118.3260908834752</v>
+        <v>123.5730693071068</v>
       </c>
       <c r="O3" t="n">
-        <v>10.87777968537124</v>
+        <v>11.11634244286792</v>
       </c>
       <c r="P3" t="n">
-        <v>346.83465617989</v>
+        <v>347.2155088043855</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18526,28 +18696,28 @@
         <v>0.0614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4135128650632465</v>
+        <v>0.3746907235607697</v>
       </c>
       <c r="J4" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="K4" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05953936010694993</v>
+        <v>0.04872120333806385</v>
       </c>
       <c r="M4" t="n">
-        <v>10.06778120113564</v>
+        <v>10.1741790539594</v>
       </c>
       <c r="N4" t="n">
-        <v>155.8391474211151</v>
+        <v>160.0136853848426</v>
       </c>
       <c r="O4" t="n">
-        <v>12.4835550794281</v>
+        <v>12.64965159144087</v>
       </c>
       <c r="P4" t="n">
-        <v>334.5338877648512</v>
+        <v>334.9112012555404</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18598,28 +18768,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.4499652392968123</v>
+        <v>0.3991929811767994</v>
       </c>
       <c r="J5" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="K5" t="n">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05524735513398971</v>
+        <v>0.04313810237862958</v>
       </c>
       <c r="M5" t="n">
-        <v>11.39388792106973</v>
+        <v>11.51976466944078</v>
       </c>
       <c r="N5" t="n">
-        <v>200.0029880433628</v>
+        <v>206.6257261719786</v>
       </c>
       <c r="O5" t="n">
-        <v>14.14224126662258</v>
+        <v>14.37448177055363</v>
       </c>
       <c r="P5" t="n">
-        <v>325.2882630251445</v>
+        <v>325.780311525019</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18657,7 +18827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F527"/>
+  <dimension ref="A1:F532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34079,7 +34249,11 @@
           <t>2025-07-23 22:17:27+00:00</t>
         </is>
       </c>
-      <c r="B527" t="inlineStr"/>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-34.93962794324509,173.5734422243701</t>
+        </is>
+      </c>
       <c r="C527" t="inlineStr">
         <is>
           <t>-34.94027900358352,173.57300051920518</t>
@@ -34098,6 +34272,162 @@
       <c r="F527" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-34.939631517883164,173.57345246156137</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-34.94026215263486,173.57291123939098</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-34.94103449743612,173.57271162869904</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-34.94179784741034,173.57270299814877</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-34.93954258050047,173.5731977601367</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-34.94025096258684,173.5728519524131</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-34.941036488791134,173.5726370453073</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-34.94180882819815,173.57258797104956</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-34.93960852113632,173.57338660261834</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-34.94024913298372,173.57284225884817</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-34.941034562522496,173.57270919100822</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-34.94180576299089,173.5726200801476</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-34.94017906171306,173.57247101212272</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-34.94104505327441,173.57231625508612</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>-34.941840551227266,173.57225565607587</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-34.93955821362639,173.5732425305791</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-34.94025483240542,173.57287245542022</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-34.941036415470975,173.57263979144076</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-34.94180817305447,173.5725948339121</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F532"/>
+  <dimension ref="A1:F535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12495,6 +12495,76 @@
       <c r="F532" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="D533" t="n">
+        <v>317.92</v>
+      </c>
+      <c r="E533" t="n">
+        <v>303</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>329.7218181818182</v>
+      </c>
+      <c r="C534" t="n">
+        <v>327.0618181818182</v>
+      </c>
+      <c r="D534" t="n">
+        <v>322.9218181818182</v>
+      </c>
+      <c r="E534" t="n">
+        <v>312.9318181818182</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>342.5236363636364</v>
+      </c>
+      <c r="C535" t="n">
+        <v>339.3236363636364</v>
+      </c>
+      <c r="D535" t="n">
+        <v>328.3636363636364</v>
+      </c>
+      <c r="E535" t="n">
+        <v>313.2636363636364</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12509,7 +12579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18367,6 +18437,36 @@
       </c>
       <c r="B585" t="n">
         <v>0.26</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -18540,28 +18640,28 @@
         <v>0.0598</v>
       </c>
       <c r="I2" t="n">
-        <v>2.711781556879407</v>
+        <v>2.625977797008645</v>
       </c>
       <c r="J2" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08881160584335213</v>
+        <v>0.08378062769037997</v>
       </c>
       <c r="M2" t="n">
-        <v>55.39838165791546</v>
+        <v>55.47043581341185</v>
       </c>
       <c r="N2" t="n">
-        <v>4300.708247579719</v>
+        <v>4318.096175210088</v>
       </c>
       <c r="O2" t="n">
-        <v>65.57978535783506</v>
+        <v>65.71222241874101</v>
       </c>
       <c r="P2" t="n">
-        <v>351.6198876712166</v>
+        <v>352.5108687602311</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18618,28 +18718,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.357729244653846</v>
+        <v>0.3297119856537802</v>
       </c>
       <c r="J3" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K3" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05778902625828408</v>
+        <v>0.04875227362757961</v>
       </c>
       <c r="M3" t="n">
-        <v>8.127505594924084</v>
+        <v>8.244415705354978</v>
       </c>
       <c r="N3" t="n">
-        <v>123.5730693071068</v>
+        <v>126.4685771098148</v>
       </c>
       <c r="O3" t="n">
-        <v>11.11634244286792</v>
+        <v>11.24582487458411</v>
       </c>
       <c r="P3" t="n">
-        <v>347.2155088043855</v>
+        <v>347.4884309162442</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18696,28 +18796,28 @@
         <v>0.0614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3746907235607697</v>
+        <v>0.3493466067334613</v>
       </c>
       <c r="J4" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K4" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04872120333806385</v>
+        <v>0.04240346930291339</v>
       </c>
       <c r="M4" t="n">
-        <v>10.1741790539594</v>
+        <v>10.24932656871022</v>
       </c>
       <c r="N4" t="n">
-        <v>160.0136853848426</v>
+        <v>161.9920679103571</v>
       </c>
       <c r="O4" t="n">
-        <v>12.64965159144087</v>
+        <v>12.72761045563373</v>
       </c>
       <c r="P4" t="n">
-        <v>334.9112012555404</v>
+        <v>335.1587200727423</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18768,28 +18868,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3991929811767994</v>
+        <v>0.3678525091533447</v>
       </c>
       <c r="J5" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K5" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04313810237862958</v>
+        <v>0.03657941098368367</v>
       </c>
       <c r="M5" t="n">
-        <v>11.51976466944078</v>
+        <v>11.60207114796017</v>
       </c>
       <c r="N5" t="n">
-        <v>206.6257261719786</v>
+        <v>209.7930646438647</v>
       </c>
       <c r="O5" t="n">
-        <v>14.37448177055363</v>
+        <v>14.48423503827056</v>
       </c>
       <c r="P5" t="n">
-        <v>325.780311525019</v>
+        <v>326.0855318091827</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18827,7 +18927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F532"/>
+  <dimension ref="A1:F535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34431,6 +34531,98 @@
         </is>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-34.94022915198238,173.57273639621937</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-34.941039652390586,173.57251855362128</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-34.94182108799853,173.572459544521</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-34.93950123664228,173.57307935912337</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-34.940218196273854,173.57267835130523</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-34.941038190810836,173.57257329719943</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-34.94181077474668,173.57256758023817</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-34.93954630237004,173.57320841889148</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-34.940242898774756,173.57280922892636</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-34.941036600630824,173.5726328564587</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-34.9418104301833,173.57257118966896</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F535"/>
+  <dimension ref="A1:F537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12563,6 +12563,52 @@
         <v>313.2636363636364</v>
       </c>
       <c r="F535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>326.1272727272727</v>
+      </c>
+      <c r="C536" t="n">
+        <v>323.8672727272727</v>
+      </c>
+      <c r="D536" t="n">
+        <v>311.3972727272728</v>
+      </c>
+      <c r="E536" t="n">
+        <v>310.4072727272728</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="n">
+        <v>345.0981818181818</v>
+      </c>
+      <c r="D537" t="n">
+        <v>338.4981818181818</v>
+      </c>
+      <c r="E537" t="n">
+        <v>332.3681818181818</v>
+      </c>
+      <c r="F537" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12579,7 +12625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B588"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18467,6 +18513,26 @@
       </c>
       <c r="B588" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -18927,7 +18993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F535"/>
+  <dimension ref="A1:F537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34623,6 +34689,66 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-34.939488582882944,173.57304312123318</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-34.94021176056045,173.5726442540491</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-34.941041558357675,173.57244716409164</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-34.941813396256954,173.57254011889654</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-34.94025453205048,173.57287086408405</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-34.941033639088495,173.57274377636833</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-34.94179059164794,173.57277900382957</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -18706,28 +18706,28 @@
         <v>0.0598</v>
       </c>
       <c r="I2" t="n">
-        <v>2.625977797008645</v>
+        <v>2.578949151247406</v>
       </c>
       <c r="J2" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K2" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08378062769037997</v>
+        <v>0.08098810364272668</v>
       </c>
       <c r="M2" t="n">
-        <v>55.47043581341185</v>
+        <v>55.52399359303341</v>
       </c>
       <c r="N2" t="n">
-        <v>4318.096175210088</v>
+        <v>4331.174978719411</v>
       </c>
       <c r="O2" t="n">
-        <v>65.71222241874101</v>
+        <v>65.81166293841397</v>
       </c>
       <c r="P2" t="n">
-        <v>352.5108687602311</v>
+        <v>353.0001271916735</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18784,28 +18784,28 @@
         <v>0.0589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3297119856537802</v>
+        <v>0.3127016872056552</v>
       </c>
       <c r="J3" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K3" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04875227362757961</v>
+        <v>0.04361852619655293</v>
       </c>
       <c r="M3" t="n">
-        <v>8.244415705354978</v>
+        <v>8.312202417948665</v>
       </c>
       <c r="N3" t="n">
-        <v>126.4685771098148</v>
+        <v>128.3941120625168</v>
       </c>
       <c r="O3" t="n">
-        <v>11.24582487458411</v>
+        <v>11.33111256949276</v>
       </c>
       <c r="P3" t="n">
-        <v>347.4884309162442</v>
+        <v>347.6546894703791</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18862,28 +18862,28 @@
         <v>0.0614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3493466067334613</v>
+        <v>0.3343226308256999</v>
       </c>
       <c r="J4" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K4" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04240346930291339</v>
+        <v>0.03877020143422516</v>
       </c>
       <c r="M4" t="n">
-        <v>10.24932656871022</v>
+        <v>10.28829816119159</v>
       </c>
       <c r="N4" t="n">
-        <v>161.9920679103571</v>
+        <v>163.6143971089371</v>
       </c>
       <c r="O4" t="n">
-        <v>12.72761045563373</v>
+        <v>12.79118435129981</v>
       </c>
       <c r="P4" t="n">
-        <v>335.1587200727423</v>
+        <v>335.305945006139</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18934,28 +18934,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3678525091533447</v>
+        <v>0.356617812145917</v>
       </c>
       <c r="J5" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K5" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03657941098368367</v>
+        <v>0.03453291040845219</v>
       </c>
       <c r="M5" t="n">
-        <v>11.60207114796017</v>
+        <v>11.60919909728283</v>
       </c>
       <c r="N5" t="n">
-        <v>209.7930646438647</v>
+        <v>210.2674611329671</v>
       </c>
       <c r="O5" t="n">
-        <v>14.48423503827056</v>
+        <v>14.50060209553269</v>
       </c>
       <c r="P5" t="n">
-        <v>326.0855318091827</v>
+        <v>326.1953084797298</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -18697,13 +18697,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0509</v>
+        <v>0.0349</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0598</v>
+        <v>0.0808</v>
       </c>
       <c r="I2" t="n">
         <v>2.578951800809614</v>
@@ -18775,13 +18775,13 @@
         <v>0.3317458757707881</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0519</v>
+        <v>0.0614</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0589</v>
+        <v>0.0711</v>
       </c>
       <c r="I3" t="n">
         <v>0.3127047433077749</v>
@@ -18853,13 +18853,13 @@
         <v>0.665588098116205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0536</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0614</v>
+        <v>0.0786</v>
       </c>
       <c r="I4" t="n">
         <v>0.3343320557423102</v>
@@ -18930,9 +18930,15 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0633</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0834</v>
+      </c>
       <c r="I5" t="n">
         <v>0.3566334242263208</v>
       </c>

--- a/data/nzd0032/nzd0032.xlsx
+++ b/data/nzd0032/nzd0032.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F540"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13385,6 +13385,30 @@
       <c r="F540" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>388.99</v>
+      </c>
+      <c r="C541" t="n">
+        <v>346.57</v>
+      </c>
+      <c r="D541" t="n">
+        <v>329.6</v>
+      </c>
+      <c r="E541" t="n">
+        <v>317.48</v>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B593"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19337,6 +19361,16 @@
       </c>
       <c r="B593" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -19504,34 +19538,34 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0344</v>
+        <v>0.0345</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0804</v>
+        <v>0.0793</v>
       </c>
       <c r="I2" t="n">
-        <v>3.17494860874113</v>
+        <v>3.160851768478382</v>
       </c>
       <c r="J2" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K2" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2190728194941173</v>
+        <v>0.218000629240714</v>
       </c>
       <c r="M2" t="n">
-        <v>35.72304727789749</v>
+        <v>35.72418251983287</v>
       </c>
       <c r="N2" t="n">
-        <v>2095.356940958574</v>
+        <v>2094.312439953625</v>
       </c>
       <c r="O2" t="n">
-        <v>45.77506898911867</v>
+        <v>45.76365850709081</v>
       </c>
       <c r="P2" t="n">
-        <v>344.8289339130458</v>
+        <v>344.9687999756461</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19582,34 +19616,34 @@
         <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0614</v>
+        <v>0.0615</v>
       </c>
       <c r="H3" t="n">
         <v>0.0712</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3402390470441855</v>
+        <v>0.336825383769167</v>
       </c>
       <c r="J3" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K3" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1417371482828078</v>
+        <v>0.1392849764378724</v>
       </c>
       <c r="M3" t="n">
-        <v>5.02838071275026</v>
+        <v>5.041797935545592</v>
       </c>
       <c r="N3" t="n">
-        <v>40.5950039536052</v>
+        <v>40.68819425485476</v>
       </c>
       <c r="O3" t="n">
-        <v>6.37142087399704</v>
+        <v>6.378729830840522</v>
       </c>
       <c r="P3" t="n">
-        <v>347.1782084066407</v>
+        <v>347.2121070759425</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19660,34 +19694,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0.079</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3328923997849961</v>
+        <v>0.3277814066429519</v>
       </c>
       <c r="J4" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K4" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0759416532733479</v>
+        <v>0.07374227929145638</v>
       </c>
       <c r="M4" t="n">
-        <v>7.204268664791097</v>
+        <v>7.220776270276128</v>
       </c>
       <c r="N4" t="n">
-        <v>78.0898813959014</v>
+        <v>78.32268991809836</v>
       </c>
       <c r="O4" t="n">
-        <v>8.83684793327923</v>
+        <v>8.850010729829561</v>
       </c>
       <c r="P4" t="n">
-        <v>335.1629028992846</v>
+        <v>335.2136565478922</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19741,31 +19775,31 @@
         <v>0.0633</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08450000000000001</v>
+        <v>0.0843</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3481889893308273</v>
+        <v>0.341850006737754</v>
       </c>
       <c r="J5" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K5" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06452628328537879</v>
+        <v>0.06224466111278659</v>
       </c>
       <c r="M5" t="n">
-        <v>8.287999756042497</v>
+        <v>8.303964980564393</v>
       </c>
       <c r="N5" t="n">
-        <v>101.7870817112015</v>
+        <v>102.1791546649942</v>
       </c>
       <c r="O5" t="n">
-        <v>10.08895840566317</v>
+        <v>10.10837052471832</v>
       </c>
       <c r="P5" t="n">
-        <v>326.0788850252275</v>
+        <v>326.1418329662866</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19803,7 +19837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F540"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37059,6 +37093,38 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-34.93970987488236,173.57367686431425</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-34.940257497138866,173.5728865736775</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-34.94103623934296,173.572646388131</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-34.94180605185895,173.57261705415942</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
